--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/4.TraBH/TBH211223_AnhTuanbg.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/4.TraBH/TBH211223_AnhTuanbg.xlsx
@@ -738,6 +738,96 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -761,96 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1229,77 +1229,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="56" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="59" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="59" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="62" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1308,58 +1308,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
       <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="C12" s="32">
         <v>866192037796156</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1454,11 +1454,11 @@
       <c r="C14" s="32">
         <v>864811037284366</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="31" t="s">
         <v>26</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="C15" s="32">
         <v>866192037816293</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="10" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="C21" s="32">
         <v>862118029979562</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="10" t="s">
         <v>31</v>
       </c>
@@ -1645,21 +1645,25 @@
       <c r="H21" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="35">
+        <v>250000</v>
+      </c>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="19"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="19">
+        <v>400000</v>
+      </c>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,26 +1685,26 @@
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
@@ -1745,39 +1749,28 @@
       <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
     </row>
     <row r="72" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B7:I7"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B33:C33"/>
@@ -1785,6 +1778,17 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.70866141732283472" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
